--- a/examples/level-pegs-on-water-main.xlsx
+++ b/examples/level-pegs-on-water-main.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" name="Sum" vbProcedure="false">Sheet1!$B$16:$F$16</definedName>
+    <definedName function="false" hidden="false" name="Sum" vbProcedure="false">Sheet1!$B$13:$G$13</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t xml:space="preserve">Staff Pos</t>
   </si>
@@ -37,7 +37,10 @@
     <t xml:space="preserve">FS</t>
   </si>
   <si>
-    <t xml:space="preserve">Height of Collimation</t>
+    <t xml:space="preserve">Rise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fall</t>
   </si>
   <si>
     <t xml:space="preserve">Reduced Level</t>
@@ -46,19 +49,70 @@
     <t xml:space="preserve">Remarks</t>
   </si>
   <si>
-    <t xml:space="preserve">P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TBM P RL 59.807m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TBM Q RL 56.537m</t>
+    <t xml:space="preserve">BM1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM 66.405 ODN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change point 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peg 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peg 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peg 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change Point 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peg 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peg 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peg 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CP3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change Point 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM 60.755 ODN</t>
   </si>
   <si>
     <t xml:space="preserve">Sum</t>
@@ -77,10 +131,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -102,13 +157,33 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -179,16 +254,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -196,19 +271,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -289,13 +380,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16:F16"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -316,84 +407,372 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>1.432</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>66.405</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>0.868</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0.977</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>66.86</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>1.652</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0.502</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>66.076</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>1.832</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>65.896</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>2.231</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0.399</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>65.497</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>1</v>
+      <c r="A7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>2.714</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0.483</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>65.014</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>0.388</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0.207</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>65.221</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>0.654</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0.266</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>64.955</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>3</v>
+      <c r="A10" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>0.956</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0.302</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>64.653</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>2</v>
+      <c r="A11" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>0.657</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>2.962</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>2.006</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>62.647</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>10</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>2.548</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1.891</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>60.756</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="7" t="n">
+        <f aca="false">SUM(B2:B12)</f>
+        <v>3.552</v>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7" t="n">
+        <f aca="false">SUM(D2:D12)</f>
+        <v>9.201</v>
+      </c>
+      <c r="E13" s="7" t="n">
+        <f aca="false">SUM(E2:E12)</f>
+        <v>0.662</v>
+      </c>
+      <c r="F13" s="7" t="n">
+        <f aca="false">SUM(F2:F12)</f>
+        <v>6.029</v>
+      </c>
+      <c r="G13" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>-5.649</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11" t="n">
+        <v>-5.649</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="0" t="n">
+        <v>-5.649</v>
+      </c>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G15" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="A15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="A16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
